--- a/data/simulated_data/case2_mse_full.xlsx
+++ b/data/simulated_data/case2_mse_full.xlsx
@@ -531,57 +531,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>% Decrease relative to RP full</t>
+          <t>% Decrease relative to RP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  70.82</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  96.68</t>
+          <t xml:space="preserve">  88.63</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  91.88</t>
+          <t xml:space="preserve">  72.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  87.38</t>
+          <t xml:space="preserve">  56.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  72.34</t>
+          <t xml:space="preserve">   5.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-219.17</t>
+          <t>-993.81</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  99.92</t>
+          <t xml:space="preserve">  99.74</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  98.76</t>
+          <t xml:space="preserve">  95.74</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  89.43</t>
+          <t xml:space="preserve">  63.78</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  94.09</t>
+          <t xml:space="preserve">  79.75</t>
         </is>
       </c>
     </row>
